--- a/Documentation/weapons_and_shields.xlsx
+++ b/Documentation/weapons_and_shields.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10905" yWindow="-15" windowWidth="10710" windowHeight="10740"/>
-    <workbookView xWindow="-45" yWindow="-15" windowWidth="10920" windowHeight="10740"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="19095" windowHeight="12000"/>
+    <workbookView xWindow="19305" yWindow="60" windowWidth="19020" windowHeight="11895" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
     <sheet name="Shields" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
   <si>
     <t>Type</t>
   </si>
@@ -114,15 +115,9 @@
     <t>Splash Damage (0-100)</t>
   </si>
   <si>
-    <t>Max. Level (0-5)</t>
-  </si>
-  <si>
     <t>Rarity (0-100%)</t>
   </si>
   <si>
-    <t>Splash Damange Resistance (0-100)</t>
-  </si>
-  <si>
     <t>Anti-Damage (0-100)</t>
   </si>
   <si>
@@ -145,6 +140,39 @@
   </si>
   <si>
     <t>Basic Energy</t>
+  </si>
+  <si>
+    <t>Advanced Kinetic</t>
+  </si>
+  <si>
+    <t>Advanced Mass Driver</t>
+  </si>
+  <si>
+    <t>Advanced Fire</t>
+  </si>
+  <si>
+    <t>Advanced Energy</t>
+  </si>
+  <si>
+    <t>Max. Splash Resistance (Calc)</t>
+  </si>
+  <si>
+    <t>Max. Resistance</t>
+  </si>
+  <si>
+    <t>Splash Damage Resistance (0-100)</t>
+  </si>
+  <si>
+    <t>Super Kinetic</t>
+  </si>
+  <si>
+    <t>Super Mass Driver</t>
+  </si>
+  <si>
+    <t>Super Fire</t>
+  </si>
+  <si>
+    <t>Super Energy</t>
   </si>
 </sst>
 </file>
@@ -188,10 +216,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -234,7 +264,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H22" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:H22"/>
   <sortState ref="A2:H22">
-    <sortCondition ref="E1:E22"/>
+    <sortCondition ref="B1:B22"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" name="Name"/>
@@ -249,6 +279,27 @@
       <calculatedColumnFormula>Table1[[#This Row],[Splash Damage (0-100)]]*Table1[[#This Row],[Max. Level (1-5)]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="Rarity (1%-100%)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:H13" totalsRowShown="0">
+  <autoFilter ref="A1:H13"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Anti-Damage (0-100)"/>
+    <tableColumn id="4" name="Max. Level (1-5)"/>
+    <tableColumn id="5" name="Max. Resistance">
+      <calculatedColumnFormula>PRODUCT(C2, D2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Splash Damage Resistance (0-100)"/>
+    <tableColumn id="7" name="Max. Splash Resistance (Calc)">
+      <calculatedColumnFormula>PRODUCT(F2, D2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="Rarity (0-100%)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -544,12 +595,10 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -576,13 +625,13 @@
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>29</v>
@@ -590,48 +639,48 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <f>Table1[[#This Row],[Damage (0-100)]]*Table1[[#This Row],[Max. Level (1-5)]]</f>
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <f>Table1[[#This Row],[Splash Damage (0-100)]]*Table1[[#This Row],[Max. Level (1-5)]]</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
         <f>Table1[[#This Row],[Damage (0-100)]]*Table1[[#This Row],[Max. Level (1-5)]]</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -641,53 +690,53 @@
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <f>Table1[[#This Row],[Damage (0-100)]]*Table1[[#This Row],[Max. Level (1-5)]]</f>
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G4">
         <f>Table1[[#This Row],[Splash Damage (0-100)]]*Table1[[#This Row],[Max. Level (1-5)]]</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H4" s="2">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <f>Table1[[#This Row],[Damage (0-100)]]*Table1[[#This Row],[Max. Level (1-5)]]</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -697,53 +746,53 @@
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <f>Table1[[#This Row],[Damage (0-100)]]*Table1[[#This Row],[Max. Level (1-5)]]</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <f>Table1[[#This Row],[Splash Damage (0-100)]]*Table1[[#This Row],[Max. Level (1-5)]]</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H6" s="2">
-        <v>0.6</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <f>Table1[[#This Row],[Damage (0-100)]]*Table1[[#This Row],[Max. Level (1-5)]]</f>
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -753,22 +802,22 @@
         <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>0.75</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
       <c r="E8">
         <f>Table1[[#This Row],[Damage (0-100)]]*Table1[[#This Row],[Max. Level (1-5)]]</f>
         <v>60</v>
@@ -781,137 +830,137 @@
         <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9">
         <f>Table1[[#This Row],[Damage (0-100)]]*Table1[[#This Row],[Max. Level (1-5)]]</f>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <f>Table1[[#This Row],[Splash Damage (0-100)]]*Table1[[#This Row],[Max. Level (1-5)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H9" s="2">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10">
         <f>Table1[[#This Row],[Damage (0-100)]]*Table1[[#This Row],[Max. Level (1-5)]]</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G10">
         <f>Table1[[#This Row],[Splash Damage (0-100)]]*Table1[[#This Row],[Max. Level (1-5)]]</f>
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="H10" s="2">
-        <v>0.65</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <f>Table1[[#This Row],[Damage (0-100)]]*Table1[[#This Row],[Max. Level (1-5)]]</f>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G11">
         <f>Table1[[#This Row],[Splash Damage (0-100)]]*Table1[[#This Row],[Max. Level (1-5)]]</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H11" s="2">
-        <v>0.65</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <f>Table1[[#This Row],[Damage (0-100)]]*Table1[[#This Row],[Max. Level (1-5)]]</f>
         <v>60</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <f>Table1[[#This Row],[Splash Damage (0-100)]]*Table1[[#This Row],[Max. Level (1-5)]]</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H12" s="2">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C13">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13">
         <f>Table1[[#This Row],[Damage (0-100)]]*Table1[[#This Row],[Max. Level (1-5)]]</f>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -921,137 +970,137 @@
         <v>20</v>
       </c>
       <c r="H13" s="2">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <f>Table1[[#This Row],[Damage (0-100)]]*Table1[[#This Row],[Max. Level (1-5)]]</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G14">
         <f>Table1[[#This Row],[Splash Damage (0-100)]]*Table1[[#This Row],[Max. Level (1-5)]]</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H14" s="2">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <f>Table1[[#This Row],[Damage (0-100)]]*Table1[[#This Row],[Max. Level (1-5)]]</f>
+        <v>100</v>
+      </c>
+      <c r="F15">
         <v>75</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
       <c r="G15">
         <f>Table1[[#This Row],[Splash Damage (0-100)]]*Table1[[#This Row],[Max. Level (1-5)]]</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H15" s="2">
-        <v>0.4</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E16">
         <f>Table1[[#This Row],[Damage (0-100)]]*Table1[[#This Row],[Max. Level (1-5)]]</f>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="F16">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <f>Table1[[#This Row],[Splash Damage (0-100)]]*Table1[[#This Row],[Max. Level (1-5)]]</f>
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H16" s="2">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C17">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E17">
         <f>Table1[[#This Row],[Damage (0-100)]]*Table1[[#This Row],[Max. Level (1-5)]]</f>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <f>Table1[[#This Row],[Splash Damage (0-100)]]*Table1[[#This Row],[Max. Level (1-5)]]</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H17" s="2">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E18">
         <f>Table1[[#This Row],[Damage (0-100)]]*Table1[[#This Row],[Max. Level (1-5)]]</f>
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1061,91 +1110,91 @@
         <v>0</v>
       </c>
       <c r="H18" s="2">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C19">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E19">
         <f>Table1[[#This Row],[Damage (0-100)]]*Table1[[#This Row],[Max. Level (1-5)]]</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <f>Table1[[#This Row],[Splash Damage (0-100)]]*Table1[[#This Row],[Max. Level (1-5)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H19" s="2">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <f>Table1[[#This Row],[Damage (0-100)]]*Table1[[#This Row],[Max. Level (1-5)]]</f>
         <v>50</v>
       </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <f>Table1[[#This Row],[Damage (0-100)]]*Table1[[#This Row],[Max. Level (1-5)]]</f>
-        <v>100</v>
-      </c>
       <c r="F20">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <f>Table1[[#This Row],[Splash Damage (0-100)]]*Table1[[#This Row],[Max. Level (1-5)]]</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H20" s="2">
-        <v>0.15</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C21">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <f>Table1[[#This Row],[Damage (0-100)]]*Table1[[#This Row],[Max. Level (1-5)]]</f>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F21">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <f>Table1[[#This Row],[Splash Damage (0-100)]]*Table1[[#This Row],[Max. Level (1-5)]]</f>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="H21" s="2">
-        <v>0.02</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1190,26 +1239,26 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="1">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="1">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1217,63 +1266,378 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
       <c r="D2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="E2">
+        <f>PRODUCT(C2, D2)</f>
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>PRODUCT(F2, D2)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
       <c r="D3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="E3">
+        <f t="shared" ref="E3:E9" si="0">PRODUCT(C3, D3)</f>
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G9" si="1">PRODUCT(F3, D3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
       </c>
       <c r="D4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
       <c r="D5">
         <v>5</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <f>PRODUCT(C10, D10)</f>
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3">
+        <f>PRODUCT(F10, D10)</f>
+        <v>50</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3">
+        <f>PRODUCT(C11, D11)</f>
+        <v>100</v>
+      </c>
+      <c r="F11" s="3">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3">
+        <f>PRODUCT(F11, D11)</f>
+        <v>50</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="3">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3">
+        <f>PRODUCT(C12, D12)</f>
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3">
+        <f>PRODUCT(F12, D12)</f>
+        <v>50</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3">
+        <f>PRODUCT(C13, D13)</f>
+        <v>100</v>
+      </c>
+      <c r="F13" s="3">
+        <v>10</v>
+      </c>
+      <c r="G13" s="3">
+        <f>PRODUCT(F13, D13)</f>
+        <v>50</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.1</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documentation/weapons_and_shields.xlsx
+++ b/Documentation/weapons_and_shields.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="19095" windowHeight="12000"/>
-    <workbookView xWindow="19305" yWindow="60" windowWidth="19020" windowHeight="11895" activeTab="1"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="11328" windowHeight="4728" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
     <sheet name="Shields" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -178,8 +177,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +379,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -414,6 +414,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -589,29 +590,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="7" width="25.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="6" max="7" width="25.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -637,7 +637,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -665,7 +665,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -693,7 +693,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -721,7 +721,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -749,7 +749,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -777,7 +777,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -805,7 +805,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -833,7 +833,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -861,7 +861,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -889,7 +889,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -917,7 +917,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -945,7 +945,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -973,7 +973,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1235,30 +1235,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="1">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1284,7 +1283,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1312,7 +1311,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1340,7 +1339,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1368,7 +1367,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1396,7 +1395,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1424,7 +1423,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -1452,7 +1451,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -1480,7 +1479,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -1508,7 +1507,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>48</v>
       </c>
@@ -1536,7 +1535,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
@@ -1564,7 +1563,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>50</v>
       </c>
@@ -1592,7 +1591,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>51</v>
       </c>
@@ -1630,13 +1629,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
